--- a/铝/eta/氧化铝周度表需_合并数据.xlsx
+++ b/铝/eta/氧化铝周度表需_合并数据.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>182.18</v>
+        <v>182.08</v>
       </c>
     </row>
     <row r="7">
